--- a/src/main/resources/report_templates/PXK.xlsx
+++ b/src/main/resources/report_templates/PXK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD942309-3700-4237-802D-72FA4A84C3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA5C4B-69D4-4EF5-AEFE-2C2933948B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="L17" sheetStreaming="true")</t>
+jx:area(lastCell="L17")</t>
         </r>
       </text>
     </comment>
@@ -756,19 +756,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -805,26 +820,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1168,11 +1168,11 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -1185,11 +1185,11 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1198,21 +1198,21 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
     </row>
     <row r="4" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="2"/>
@@ -1223,32 +1223,32 @@
       <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1313,40 +1313,40 @@
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="55" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="52" t="s">
+      <c r="K15" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="53"/>
+      <c r="L15" s="58"/>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="51"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="56"/>
       <c r="K16" s="44" t="s">
         <v>13</v>
       </c>
@@ -1358,15 +1358,15 @@
       <c r="A17" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="40" t="s">
         <v>41</v>
       </c>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="18" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="42"/>
@@ -1478,53 +1478,53 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J25" s="48" t="s">
+      <c r="J25" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46" t="s">
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="46"/>
+      <c r="L26" s="68"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47" t="s">
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47" t="s">
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="47"/>
+      <c r="L27" s="69"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
@@ -1546,20 +1546,20 @@
       <c r="O28" s="27"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46" t="s">
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="46"/>
+      <c r="L29" s="68"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
@@ -1582,20 +1582,6 @@
     <row r="64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="B15:H16"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
@@ -1611,6 +1597,20 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:F29"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B15:H16"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.20833333333333334" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/report_templates/PXK.xlsx
+++ b/src/main/resources/report_templates/PXK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA5C4B-69D4-4EF5-AEFE-2C2933948B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC093DB-CCA4-4A91-B35D-C0AC0C47E517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="576" windowWidth="23256" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -756,34 +756,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -820,11 +805,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,8 +1140,8 @@
   </sheetPr>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1168,11 +1168,11 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -1185,11 +1185,11 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1198,21 +1198,21 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
     </row>
     <row r="4" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="2"/>
@@ -1223,32 +1223,32 @@
       <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1313,40 +1313,40 @@
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="60" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="58"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="56"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="44" t="s">
         <v>13</v>
       </c>
@@ -1358,15 +1358,15 @@
       <c r="A17" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="64"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
       <c r="I17" s="40" t="s">
         <v>41</v>
       </c>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="18" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="42"/>
@@ -1478,53 +1478,53 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J25" s="54" t="s">
+      <c r="J25" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="68"/>
+      <c r="L26" s="46"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69" t="s">
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="69"/>
+      <c r="L27" s="47"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
@@ -1546,20 +1546,20 @@
       <c r="O28" s="27"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="68"/>
+      <c r="L29" s="46"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
@@ -1582,6 +1582,20 @@
     <row r="64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B15:H16"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
@@ -1597,20 +1611,6 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:F29"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="B15:H16"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.20833333333333334" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/report_templates/PXK.xlsx
+++ b/src/main/resources/report_templates/PXK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC093DB-CCA4-4A91-B35D-C0AC0C47E517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9815622F-E3AA-45A6-8C91-12E33D4F5106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="576" windowWidth="23256" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{A7E2E787-A2BB-433F-8C4A-707CB6A27D7C}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{9D2F7D7C-49C6-4264-B911-277A4D88DC24}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>CÔNG TY TNHH NOBLELIFT ĐÔNG NAM Á (VIỆT NAM)</t>
   </si>
@@ -207,40 +207,37 @@
     <t>Tầng 3, số 107, Khu Đô Thị Vạn Phúc, Đường 37, Phường Hiệp Bình Phước, TP HCM</t>
   </si>
   <si>
-    <t xml:space="preserve">${dataset.indexOf (e)+1} </t>
-  </si>
-  <si>
-    <t>${fromWarehouseName}</t>
-  </si>
-  <si>
-    <t>${toUserName}</t>
-  </si>
-  <si>
-    <t>${address1}</t>
-  </si>
-  <si>
-    <t>${address2}</t>
-  </si>
-  <si>
     <t>${dayString}</t>
   </si>
   <si>
-    <t>Cái</t>
-  </si>
-  <si>
     <t>${e.quantity}</t>
   </si>
   <si>
-    <t>${e.productCode}</t>
-  </si>
-  <si>
-    <t>${e.type+ e.model}</t>
-  </si>
-  <si>
     <t>${total1}</t>
   </si>
   <si>
     <t>${total2}</t>
+  </si>
+  <si>
+    <t>${outDeptName}</t>
+  </si>
+  <si>
+    <t>${outDeptAddress}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${e.index} </t>
+  </si>
+  <si>
+    <t>${e.name}</t>
+  </si>
+  <si>
+    <t>${e.code}</t>
+  </si>
+  <si>
+    <t>${e.unit}</t>
+  </si>
+  <si>
+    <t>${e.realQuantity}</t>
   </si>
 </sst>
 </file>
@@ -756,19 +753,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -805,26 +817,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,8 +1137,8 @@
   </sheetPr>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1168,11 +1165,11 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -1185,11 +1182,11 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1198,21 +1195,21 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
     </row>
     <row r="4" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="2"/>
@@ -1223,32 +1220,32 @@
       <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="C7" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L9" s="28"/>
     </row>
@@ -1273,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,7 +1294,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,40 +1310,40 @@
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="55" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="52" t="s">
+      <c r="K15" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="53"/>
+      <c r="L15" s="58"/>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="51"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="56"/>
       <c r="K16" s="44" t="s">
         <v>13</v>
       </c>
@@ -1356,39 +1353,39 @@
     </row>
     <row r="17" spans="1:15" s="32" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
+        <v>39</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="40" t="s">
         <v>41</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K17" s="43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L17" s="43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="42"/>
@@ -1420,10 +1417,10 @@
       <c r="I20" s="39"/>
       <c r="J20" s="23"/>
       <c r="K20" s="34" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1478,53 +1475,53 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J25" s="48" t="s">
+      <c r="J25" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46" t="s">
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="46"/>
+      <c r="L26" s="68"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47" t="s">
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47" t="s">
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="47"/>
+      <c r="L27" s="69"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
@@ -1546,20 +1543,20 @@
       <c r="O28" s="27"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46" t="s">
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="46"/>
+      <c r="L29" s="68"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
@@ -1582,20 +1579,6 @@
     <row r="64" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="B15:H16"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
@@ -1611,6 +1594,20 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:F29"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B15:H16"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.20833333333333334" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/report_templates/PXK.xlsx
+++ b/src/main/resources/report_templates/PXK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9815622F-E3AA-45A6-8C91-12E33D4F5106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9A89D1-F984-42B0-A522-81C1B90EE17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2424" yWindow="0" windowWidth="27000" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>CÔNG TY TNHH NOBLELIFT ĐÔNG NAM Á (VIỆT NAM)</t>
   </si>
@@ -201,9 +201,6 @@
     <t>39</t>
   </si>
   <si>
-    <t>Xuất bán hàng</t>
-  </si>
-  <si>
     <t>Tầng 3, số 107, Khu Đô Thị Vạn Phúc, Đường 37, Phường Hiệp Bình Phước, TP HCM</t>
   </si>
   <si>
@@ -219,25 +216,31 @@
     <t>${total2}</t>
   </si>
   <si>
+    <t>${outDeptAddress}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${e.index} </t>
+  </si>
+  <si>
+    <t>${e.name}</t>
+  </si>
+  <si>
+    <t>${e.code}</t>
+  </si>
+  <si>
+    <t>${e.unit}</t>
+  </si>
+  <si>
+    <t>${e.realQuantity}</t>
+  </si>
+  <si>
+    <t>${reason}</t>
+  </si>
+  <si>
     <t>${outDeptName}</t>
   </si>
   <si>
-    <t>${outDeptAddress}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${e.index} </t>
-  </si>
-  <si>
-    <t>${e.name}</t>
-  </si>
-  <si>
-    <t>${e.code}</t>
-  </si>
-  <si>
-    <t>${e.unit}</t>
-  </si>
-  <si>
-    <t>${e.realQuantity}</t>
+    <t>${outDeptPosition}</t>
   </si>
 </sst>
 </file>
@@ -1137,8 +1140,8 @@
   </sheetPr>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1193,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1237,7 +1240,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="59"/>
@@ -1260,9 +1263,6 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1353,10 +1353,10 @@
     </row>
     <row r="17" spans="1:15" s="32" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="63"/>
       <c r="D17" s="63"/>
@@ -1365,16 +1365,16 @@
       <c r="G17" s="63"/>
       <c r="H17" s="64"/>
       <c r="I17" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="43" t="s">
         <v>41</v>
-      </c>
-      <c r="J17" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" s="43" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1417,10 +1417,10 @@
       <c r="I20" s="39"/>
       <c r="J20" s="23"/>
       <c r="K20" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="34" t="s">
         <v>35</v>
-      </c>
-      <c r="L20" s="34" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
